--- a/public/DUMMY_DATA_FK.xlsx
+++ b/public/DUMMY_DATA_FK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulu\Desktop\essalud-electron-vuejs\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAA3684-0BAA-4D9C-AD94-6BB406542AAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A78663-1529-44E3-8633-77A203F7DBEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/public/DUMMY_DATA_FK.xlsx
+++ b/public/DUMMY_DATA_FK.xlsx
@@ -1,33 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulu\Desktop\essalud-electron-vuejs\public\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A78663-1529-44E3-8633-77A203F7DBEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="data" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase">data!$A$1:$F$21</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
     <t>Khaki</t>
   </si>
   <si>
@@ -94,30 +103,34 @@
     <t>diners-club-enroute</t>
   </si>
   <si>
-    <t>fecha</t>
-  </si>
-  <si>
-    <t>producto</t>
-  </si>
-  <si>
-    <t>cantidad</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>codigo</t>
+    <t>24/03/2021</t>
+  </si>
+  <si>
+    <t>teeeeeest</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <family val="1"/>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,13 +155,13 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -456,44 +469,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -501,19 +514,19 @@
         <v>44268</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>256737377576</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -521,19 +534,19 @@
         <v>44269</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>256737377576</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -541,19 +554,19 @@
         <v>44270</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>256737377576</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -561,19 +574,19 @@
         <v>44271</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>256737377576</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -581,19 +594,19 @@
         <v>44272</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>256737377576</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -601,19 +614,19 @@
         <v>44273</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>256737377576</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -621,19 +634,19 @@
         <v>44274</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>256737377576</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -641,19 +654,19 @@
         <v>44275</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>256737377576</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -661,19 +674,19 @@
         <v>44276</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>256737377576</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -681,19 +694,19 @@
         <v>44277</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <v>256737377576</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -701,19 +714,19 @@
         <v>44278</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>256737377576</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -721,19 +734,19 @@
         <v>44279</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>256737377576</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -741,19 +754,19 @@
         <v>44280</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F14">
         <v>256737377576</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -761,19 +774,19 @@
         <v>44281</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F15">
         <v>256737377576</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -781,19 +794,19 @@
         <v>44282</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>256737377576</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -801,19 +814,19 @@
         <v>44283</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <v>256737377576</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -821,19 +834,19 @@
         <v>44284</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D18">
         <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F18">
         <v>256737377576</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -841,19 +854,19 @@
         <v>44285</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D19">
         <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>256737377576</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -861,19 +874,19 @@
         <v>44286</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D20">
         <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F20">
         <v>256737377576</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -881,21 +894,35 @@
         <v>44287</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F21">
         <v>256737377576</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F21" xr:uid="{F4662D24-6E12-45B2-9437-77554ABCE7C1}"/>
+  <autoFilter ref="A1:F21"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>